--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject11.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject11.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="11.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.86983215623352339</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>0</v>
+        <v>0.86972655137541754</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -179,7 +179,7 @@
         <v>0</v>
       </c>
       <c r="R1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1" s="0">
         <v>0</v>
@@ -197,7 +197,7 @@
         <v>0</v>
       </c>
       <c r="X1" s="0">
-        <v>0</v>
+        <v>0.80121732854210426</v>
       </c>
       <c r="Y1" s="0">
         <v>0</v>
@@ -215,7 +215,7 @@
         <v>0</v>
       </c>
       <c r="AD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="0">
         <v>0</v>
@@ -224,7 +224,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH1" s="0">
         <v>0</v>
@@ -245,7 +245,7 @@
         <v>0</v>
       </c>
       <c r="AN1" s="0">
-        <v>0</v>
+        <v>0.54179055461548709</v>
       </c>
       <c r="AO1" s="0">
         <v>0</v>
@@ -272,7 +272,7 @@
         <v>0</v>
       </c>
       <c r="AW1" s="0">
-        <v>0</v>
+        <v>0.79101317257061221</v>
       </c>
       <c r="AX1" s="0">
         <v>0</v>
@@ -287,7 +287,7 @@
         <v>0</v>
       </c>
       <c r="BB1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC1" s="0">
         <v>0</v>
@@ -314,7 +314,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL1" s="0">
         <v>0</v>
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.87516004882373788</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>0</v>
+        <v>0.71538302171705959</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>0.57156137480173075</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>0</v>
+        <v>0.94301682275884291</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -529,21 +529,21 @@
         <v>0</v>
       </c>
       <c r="BN2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2" s="0">
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.6852335738516846</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>1</v>
+        <v>0.78631489007336364</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>0</v>
+        <v>0.80844045867038306</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="0">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>0</v>
+        <v>0.87713591886966102</v>
       </c>
       <c r="AU3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0</v>
+        <v>0.57821133571820604</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.59383979594101066</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1</v>
+        <v>0.67428410751203705</v>
       </c>
       <c r="R4" s="0">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="0">
-        <v>0</v>
+        <v>0.93559708018305443</v>
       </c>
       <c r="AR4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="0">
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>0</v>
+        <v>0.66597763563811108</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="0">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.83416521379654984</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.69718521129719635</v>
       </c>
       <c r="H5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="BO5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="0">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.82123462459036789</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.81944690911522888</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="0">
-        <v>0</v>
+        <v>0.50041566331635412</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="0">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1278,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="AO6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="0">
         <v>0</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0</v>
+        <v>0.76209844076561728</v>
       </c>
       <c r="AR6" s="0">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="0">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="0">
-        <v>0</v>
+        <v>0.88380130725799144</v>
       </c>
       <c r="AY6" s="0">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>0</v>
+        <v>0.83527658132891192</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.67271083273624321</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.62990773405338274</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.90290178917702679</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>0</v>
+        <v>0.7619059555178892</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="0">
-        <v>0</v>
+        <v>0.91707995512488916</v>
       </c>
       <c r="BJ7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="0">
-        <v>0</v>
+        <v>0.59705885312331008</v>
       </c>
     </row>
     <row r="8">
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0</v>
+        <v>0.95431048619355963</v>
       </c>
       <c r="L8" s="0">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="0">
-        <v>0</v>
+        <v>0.99079816501995799</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="0">
-        <v>0</v>
+        <v>0.54450275650592639</v>
       </c>
       <c r="AF8" s="0">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="0">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>0</v>
+        <v>0.6665341704668144</v>
       </c>
       <c r="AQ8" s="0">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="0">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="0">
-        <v>0</v>
+        <v>0.57501055227012998</v>
       </c>
       <c r="BE8" s="0">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="BG8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="0">
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
@@ -1794,16 +1794,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.97831146113056855</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.59182530288969004</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="0">
-        <v>0</v>
+        <v>0.54003652274311476</v>
       </c>
       <c r="AI9" s="0">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="0">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="0">
-        <v>0</v>
+        <v>0.66941938447276872</v>
       </c>
       <c r="AY9" s="0">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="0">
-        <v>0</v>
+        <v>0.99371951599938457</v>
       </c>
       <c r="BC9" s="0">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="0">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>0.61846954456281944</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.90503280693923616</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0</v>
+        <v>0.68565628067660378</v>
       </c>
       <c r="R10" s="0">
         <v>0</v>
@@ -2042,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>0</v>
+        <v>0.83744598333469011</v>
       </c>
       <c r="W10" s="0">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="0">
-        <v>0</v>
+        <v>0.89497814921078689</v>
       </c>
       <c r="AD10" s="0">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="0">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0</v>
+        <v>0.54872028747840818</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>0</v>
+        <v>0.6627740634363124</v>
       </c>
       <c r="I11" s="0">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>0</v>
+        <v>0.66713812688630336</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="AW11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="0">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="BC11" s="0">
-        <v>0</v>
+        <v>0.50950184171163038</v>
       </c>
       <c r="BD11" s="0">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0</v>
+        <v>0.66098487110262516</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0</v>
+        <v>0.50265512304240445</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="0">
-        <v>1</v>
+        <v>0.89528319199823458</v>
       </c>
       <c r="BG12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0</v>
+        <v>0.74116737876110128</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0</v>
+        <v>0.68232813626134248</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="0">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="BL13" s="0">
-        <v>0</v>
+        <v>0.93000247104385014</v>
       </c>
       <c r="BM13" s="0">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>0.93016850520602001</v>
       </c>
       <c r="C14" s="0">
-        <v>1</v>
+        <v>0.90242982680627937</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="0">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>0</v>
+        <v>0.5442057814876049</v>
       </c>
       <c r="AH14" s="0">
-        <v>0</v>
+        <v>0.94872935182820917</v>
       </c>
       <c r="AI14" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>0</v>
+        <v>0.65095645950900116</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="0">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="0">
-        <v>0</v>
+        <v>0.86313756051540214</v>
       </c>
       <c r="BJ14" s="0">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="BM14" s="0">
-        <v>0</v>
+        <v>0.85298730329269379</v>
       </c>
       <c r="BN14" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.88835328853097151</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>0</v>
+        <v>0.97897034956611706</v>
       </c>
       <c r="Y15" s="0">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="0">
-        <v>0</v>
+        <v>0.78810739392061946</v>
       </c>
       <c r="AC15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3204,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="BM15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="0">
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.84374588933394268</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="0">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="AL16" s="0">
-        <v>0</v>
+        <v>0.98855163182275863</v>
       </c>
       <c r="AM16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="0">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="0">
-        <v>0</v>
+        <v>0.98496688355997386</v>
       </c>
       <c r="AY16" s="0">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>0</v>
+        <v>0.7496202135995701</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>1</v>
+        <v>0.56936087748555897</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>0</v>
+        <v>0.65365488974270769</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>0</v>
+        <v>0.97380478442949203</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.73265277829846942</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AD17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="0">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="BL17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM17" s="0">
         <v>0</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.50847882730769789</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>0</v>
+        <v>0.60711691126243084</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>0</v>
+        <v>0.81360932073736869</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>0</v>
+        <v>0.92693425463300638</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.65479052460035603</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.54724953009245625</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>0</v>
+        <v>0.85333736957547679</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.8395158836021408</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.94719141374006954</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="0">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="0">
-        <v>0</v>
+        <v>0.87701199155934262</v>
       </c>
       <c r="AK20" s="0">
-        <v>0</v>
+        <v>0.57611554306112356</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="0">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="0">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="BM20" s="0">
-        <v>0</v>
+        <v>0.73396524504089156</v>
       </c>
       <c r="BN20" s="0">
         <v>0</v>
@@ -4275,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.69752382143590264</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
       </c>
       <c r="X21" s="0">
-        <v>0</v>
+        <v>0.64589101531473703</v>
       </c>
       <c r="Y21" s="0">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="0">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>0</v>
+        <v>0.63444883560941645</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="0">
-        <v>0</v>
+        <v>0.63631749951362604</v>
       </c>
       <c r="AT21" s="0">
         <v>0</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>0</v>
+        <v>0.54854549575008904</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.73862899691506834</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.60800565829243181</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="AG22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="0">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>0</v>
+        <v>0.97125648808967613</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.81183470206900776</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
@@ -4822,22 +4822,22 @@
         <v>0</v>
       </c>
       <c r="BC23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="0">
-        <v>1</v>
+        <v>0.69640806963277768</v>
       </c>
       <c r="BE23" s="0">
         <v>0</v>
       </c>
       <c r="BF23" s="0">
-        <v>0</v>
+        <v>0.65798075967175662</v>
       </c>
       <c r="BG23" s="0">
         <v>0</v>
       </c>
       <c r="BH23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="0">
         <v>0</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0</v>
+        <v>0.71989427705442222</v>
       </c>
       <c r="B24" s="0">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>0</v>
+        <v>0.58322247920298442</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="0">
-        <v>0</v>
+        <v>0.96463023323262043</v>
       </c>
       <c r="V24" s="0">
         <v>0</v>
@@ -5007,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="0">
         <v>0</v>
@@ -5034,16 +5034,16 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>1</v>
+        <v>0.99822803363218149</v>
       </c>
       <c r="BF24" s="0">
-        <v>0</v>
+        <v>0.73545367869506539</v>
       </c>
       <c r="BG24" s="0">
         <v>0</v>
       </c>
       <c r="BH24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="0">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="BK24" s="0">
-        <v>0</v>
+        <v>0.8187654159481248</v>
       </c>
       <c r="BL24" s="0">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>0</v>
+        <v>0.84837989870114172</v>
       </c>
       <c r="AJ25" s="0">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>0</v>
+        <v>0.99024905698219556</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5246,19 +5246,19 @@
         <v>0</v>
       </c>
       <c r="BG25" s="0">
-        <v>0</v>
+        <v>0.99375630229887213</v>
       </c>
       <c r="BH25" s="0">
-        <v>0</v>
+        <v>0.69683685081739211</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>0</v>
+        <v>0.78863581123243032</v>
       </c>
       <c r="BK25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL25" s="0">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="BP25" s="0">
-        <v>0</v>
+        <v>0.73966117953056587</v>
       </c>
     </row>
     <row r="26">
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="0">
-        <v>0</v>
+        <v>0.96964682372761046</v>
       </c>
       <c r="I26" s="0">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="0">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="0">
         <v>0</v>
@@ -5350,13 +5350,13 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="AO26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="0">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>0</v>
+        <v>0.8204119112387982</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5571,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="AD27" s="0">
-        <v>0</v>
+        <v>0.86516027514691785</v>
       </c>
       <c r="AE27" s="0">
         <v>0</v>
       </c>
       <c r="AF27" s="0">
-        <v>0</v>
+        <v>0.52158696828729689</v>
       </c>
       <c r="AG27" s="0">
         <v>0</v>
@@ -5592,13 +5592,13 @@
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>0</v>
+        <v>0.76359963851484802</v>
       </c>
       <c r="AL27" s="0">
         <v>0</v>
       </c>
       <c r="AM27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>0</v>
+        <v>0.80150988493248454</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0</v>
+        <v>0.67203756632520228</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>0</v>
+        <v>0.66690201882719125</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="0">
-        <v>0</v>
+        <v>0.6232505243699793</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
@@ -5777,19 +5777,19 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.68442407161324303</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
       </c>
       <c r="AF28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
       </c>
       <c r="AH28" s="0">
-        <v>1</v>
+        <v>0.78648104469434355</v>
       </c>
       <c r="AI28" s="0">
         <v>0</v>
@@ -5923,10 +5923,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="0">
-        <v>0</v>
+        <v>0.68493674912348057</v>
       </c>
       <c r="K29" s="0">
-        <v>0</v>
+        <v>0.97436995381872871</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="0">
         <v>0</v>
@@ -5986,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.54632620491185624</v>
       </c>
       <c r="AF29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="AU29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV29" s="0">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="BJ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0</v>
+        <v>0.87884994888635382</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6102,10 +6102,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>0.75901050675862658</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6150,13 +6150,13 @@
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="0">
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>0</v>
+        <v>0.59832136986254625</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>0</v>
+        <v>0.84665089882970102</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.87366438954689118</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="BO30" s="0">
-        <v>0</v>
+        <v>0.61859482433355217</v>
       </c>
       <c r="BP30" s="0">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="0">
-        <v>0</v>
+        <v>0.54829804251441483</v>
       </c>
       <c r="I31" s="0">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.69956251740254571</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.60687077316847338</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="BH31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI31" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>0</v>
+        <v>0.58235117887928933</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6592,19 +6592,19 @@
         <v>0</v>
       </c>
       <c r="AA32" s="0">
-        <v>0</v>
+        <v>0.77190422161971672</v>
       </c>
       <c r="AB32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="0">
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.54512541516780733</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>0</v>
+        <v>0.82673460080337335</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="AX32" s="0">
-        <v>0</v>
+        <v>0.71993598558798644</v>
       </c>
       <c r="AY32" s="0">
         <v>0</v>
@@ -6700,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="BK32" s="0">
-        <v>0</v>
+        <v>0.80707824996817989</v>
       </c>
       <c r="BL32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
@@ -6720,13 +6720,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
       </c>
       <c r="C33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>0</v>
+        <v>0.53327528339220698</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.52148576714415351</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="BI33" s="0">
-        <v>0</v>
+        <v>0.82736089337348329</v>
       </c>
       <c r="BJ33" s="0">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="0">
-        <v>0</v>
+        <v>0.50707633373034755</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
@@ -6959,19 +6959,19 @@
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="0">
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>0</v>
+        <v>0.78927140370017623</v>
       </c>
       <c r="O34" s="0">
         <v>0</v>
       </c>
       <c r="P34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="0">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="0">
-        <v>1</v>
+        <v>0.74821737695175594</v>
       </c>
       <c r="AC34" s="0">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" s="0">
-        <v>1</v>
+        <v>0.86958174284995704</v>
       </c>
       <c r="BA34" s="0">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>0</v>
+        <v>0.77891972173248469</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.6709593325953418</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0</v>
+        <v>0.60337957514232954</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7282,10 +7282,10 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>0</v>
+        <v>0.95369623002146375</v>
       </c>
       <c r="AZ35" s="0">
-        <v>0</v>
+        <v>0.54941751927077953</v>
       </c>
       <c r="BA35" s="0">
         <v>0</v>
@@ -7294,16 +7294,16 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE35" s="0">
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG35" s="0">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>0</v>
+        <v>0.55193581997655516</v>
       </c>
       <c r="U36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7464,10 +7464,10 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="0">
-        <v>0</v>
+        <v>0.9480963733393899</v>
       </c>
       <c r="AR36" s="0">
-        <v>0</v>
+        <v>0.7047393025086679</v>
       </c>
       <c r="AS36" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="0">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>0</v>
+        <v>0.71749747966200161</v>
       </c>
       <c r="U37" s="0">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="0">
-        <v>0</v>
+        <v>0.8555702130978966</v>
       </c>
       <c r="AB37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="BL37" s="0">
-        <v>0</v>
+        <v>0.91034113916764736</v>
       </c>
       <c r="BM37" s="0">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="0">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="0">
-        <v>0</v>
+        <v>0.51029454482386916</v>
       </c>
       <c r="Q38" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0</v>
+        <v>0.5624447836786024</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="BJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK38" s="0">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="0">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="0">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="0">
-        <v>0</v>
+        <v>0.9086831713088892</v>
       </c>
       <c r="AG39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="0">
-        <v>0</v>
+        <v>0.86556123583567168</v>
       </c>
       <c r="AT39" s="0">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="BM39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN39" s="0">
         <v>0</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0</v>
+        <v>0.67492322814036076</v>
       </c>
       <c r="B40" s="0">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>0</v>
+        <v>0.93397027734690796</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="AT40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="0">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         <v>0</v>
       </c>
       <c r="BB40" s="0">
-        <v>0</v>
+        <v>0.66416443102999323</v>
       </c>
       <c r="BC40" s="0">
-        <v>0</v>
+        <v>0.67034064352751876</v>
       </c>
       <c r="BD40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE40" s="0">
         <v>0</v>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="BN40" s="0">
-        <v>0</v>
+        <v>0.95322077067574762</v>
       </c>
       <c r="BO40" s="0">
         <v>0</v>
@@ -8383,10 +8383,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="0">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="0">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="0">
         <v>0</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="0">
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0</v>
+        <v>0.57334239904975504</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.67056289994852925</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="0">
-        <v>0</v>
+        <v>0.59186909242054275</v>
       </c>
       <c r="BF41" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0</v>
+        <v>0.89146884196465703</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>0</v>
+        <v>0.74326060495803192</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8694,13 +8694,13 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>0</v>
+        <v>0.97860629116354469</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="BC42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>0</v>
+        <v>0.93440077814147493</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8789,13 +8789,13 @@
         <v>0</v>
       </c>
       <c r="D43" s="0">
-        <v>0</v>
+        <v>0.65148766757800125</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>0</v>
+        <v>0.52108226715354666</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="0">
-        <v>0</v>
+        <v>0.91014612219185786</v>
       </c>
       <c r="AK43" s="0">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.65059589886191738</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="0">
-        <v>0</v>
+        <v>0.5020040709916489</v>
       </c>
       <c r="AK44" s="0">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="BF44" s="0">
-        <v>1</v>
+        <v>0.53707245637715695</v>
       </c>
       <c r="BG44" s="0">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="0">
-        <v>0</v>
+        <v>0.550370916602414</v>
       </c>
       <c r="V45" s="0">
         <v>0</v>
@@ -9300,13 +9300,13 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="0">
-        <v>0</v>
+        <v>0.71198915088135883</v>
       </c>
       <c r="AM45" s="0">
-        <v>0</v>
+        <v>0.73381155218606886</v>
       </c>
       <c r="AN45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.66228146613956251</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="C46" s="0">
-        <v>0</v>
+        <v>0.68971969939891875</v>
       </c>
       <c r="D46" s="0">
-        <v>0</v>
+        <v>0.97947252836007315</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>0</v>
+        <v>0.7993264005018389</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="0">
-        <v>0</v>
+        <v>0.74881901086868807</v>
       </c>
       <c r="AB46" s="0">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="0">
         <v>0</v>
@@ -9542,13 +9542,13 @@
         <v>0</v>
       </c>
       <c r="AW46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
       </c>
       <c r="AY46" s="0">
-        <v>0</v>
+        <v>0.83256890732943223</v>
       </c>
       <c r="AZ46" s="0">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BD46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE46" s="0">
         <v>0</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>0</v>
+        <v>0.81907690243718001</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="0">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="0">
-        <v>0</v>
+        <v>0.85279531926072005</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.69288468085332799</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="BP47" s="0">
-        <v>0</v>
+        <v>0.68062926943299917</v>
       </c>
     </row>
     <row r="48">
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.80299461846804332</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="0">
         <v>0</v>
@@ -9981,13 +9981,13 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>0</v>
+        <v>0.8702489629143888</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
       </c>
       <c r="BH48" s="0">
-        <v>0</v>
+        <v>0.78209214759881329</v>
       </c>
       <c r="BI48" s="0">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="BO48" s="0">
-        <v>0</v>
+        <v>0.83796058983337973</v>
       </c>
       <c r="BP48" s="0">
         <v>0</v>
@@ -10016,10 +10016,10 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0</v>
+        <v>0.62360124905946523</v>
       </c>
       <c r="B49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="0">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="0">
         <v>0</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="0">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="AT49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.93842866893108723</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>0</v>
+        <v>0.64037727464445782</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10237,16 +10237,16 @@
         <v>0</v>
       </c>
       <c r="F50" s="0">
-        <v>0</v>
+        <v>0.85737570277891095</v>
       </c>
       <c r="G50" s="0">
         <v>0</v>
       </c>
       <c r="H50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>0</v>
+        <v>0.93719110205514955</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -10261,13 +10261,13 @@
         <v>0</v>
       </c>
       <c r="N50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="0">
         <v>0</v>
       </c>
       <c r="P50" s="0">
-        <v>0</v>
+        <v>0.6517167958304988</v>
       </c>
       <c r="Q50" s="0">
         <v>0</v>
@@ -10276,10 +10276,10 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="0">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="0">
-        <v>0</v>
+        <v>0.64786228529871992</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.83519713185661071</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="0">
-        <v>0</v>
+        <v>0.92331728809033786</v>
       </c>
       <c r="AJ51" s="0">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>0</v>
+        <v>0.502419786592321</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.71080414312673801</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="BB51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="BH51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI51" s="0">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="BM51" s="0">
-        <v>0</v>
+        <v>0.80637157790085601</v>
       </c>
       <c r="BN51" s="0">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>0</v>
+        <v>0.52399023924596166</v>
       </c>
       <c r="M52" s="0">
         <v>0</v>
@@ -10733,10 +10733,10 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>1</v>
+        <v>0.93120194978999082</v>
       </c>
       <c r="AI52" s="0">
-        <v>0</v>
+        <v>0.66961535073228506</v>
       </c>
       <c r="AJ52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0</v>
+        <v>0.68151642437965532</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="BO52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0</v>
+        <v>0.67530354170618356</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="AV53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0</v>
+        <v>0.77545227335396238</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>0</v>
+        <v>0.73206061585067506</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="BN53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO53" s="0">
         <v>0</v>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="0">
-        <v>0</v>
+        <v>0.7255370371499863</v>
       </c>
       <c r="J54" s="0">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="0">
-        <v>0</v>
+        <v>0.94913601228700628</v>
       </c>
       <c r="AO54" s="0">
         <v>0</v>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="AY54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="0">
         <v>0</v>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0">
-        <v>0</v>
+        <v>0.8185471720861357</v>
       </c>
       <c r="L55" s="0">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11369,13 +11369,13 @@
         <v>0</v>
       </c>
       <c r="AN55" s="0">
-        <v>0</v>
+        <v>0.69582812680473505</v>
       </c>
       <c r="AO55" s="0">
         <v>0</v>
       </c>
       <c r="AP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>0</v>
+        <v>0.75582725638848725</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>1</v>
+        <v>0.54029663719755716</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="0">
         <v>0</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO56" s="0">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="AT56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.69865890553474985</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="BJ56" s="0">
-        <v>0</v>
+        <v>0.78443210423826626</v>
       </c>
       <c r="BK56" s="0">
         <v>0</v>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>1</v>
+        <v>0.8605982993638317</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>0</v>
+        <v>0.59128148553782256</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="AO57" s="0">
-        <v>0</v>
+        <v>0.72862474366717411</v>
       </c>
       <c r="AP57" s="0">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="0">
-        <v>0</v>
+        <v>0.82654632838082565</v>
       </c>
       <c r="BB57" s="0">
         <v>0</v>
@@ -11903,10 +11903,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>1</v>
+        <v>0.8195575863764939</v>
       </c>
       <c r="M58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" s="0">
         <v>0</v>
@@ -11936,10 +11936,10 @@
         <v>0</v>
       </c>
       <c r="W58" s="0">
-        <v>0</v>
+        <v>0.82413060369091018</v>
       </c>
       <c r="X58" s="0">
-        <v>0</v>
+        <v>0.83112516834316186</v>
       </c>
       <c r="Y58" s="0">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="0">
         <v>0</v>
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="AR58" s="0">
-        <v>1</v>
+        <v>0.96791281499422799</v>
       </c>
       <c r="AS58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>0</v>
+        <v>0.88500615351785483</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.95501322308165604</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="0">
         <v>0</v>
@@ -12148,10 +12148,10 @@
         <v>0</v>
       </c>
       <c r="Y59" s="0">
-        <v>0</v>
+        <v>0.82998245933484538</v>
       </c>
       <c r="Z59" s="0">
-        <v>0</v>
+        <v>0.78481632123327905</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12247,16 +12247,16 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.58850748418615639</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.74331210188066321</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="BP59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0</v>
+        <v>0.51744867800866556</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12348,13 +12348,13 @@
         <v>0</v>
       </c>
       <c r="W60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="0">
-        <v>0</v>
+        <v>0.70893506597599187</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="0">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK60" s="0">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AV60" s="0">
-        <v>0</v>
+        <v>0.74489969831689118</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="AY60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.54372801260458048</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>0</v>
+        <v>0.92389864086526785</v>
       </c>
     </row>
     <row r="61">
@@ -12506,13 +12506,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>0</v>
+        <v>0.53120838704808548</v>
       </c>
       <c r="H61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="0">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="0">
-        <v>0</v>
+        <v>0.60030590745632262</v>
       </c>
       <c r="O61" s="0">
         <v>0</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="AG61" s="0">
-        <v>0</v>
+        <v>0.92533403334355979</v>
       </c>
       <c r="AH61" s="0">
         <v>0</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="AR61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.83174211459417657</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>0</v>
+        <v>0.63826806162092153</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12778,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD62" s="0">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="0">
         <v>0</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="BD62" s="0">
-        <v>0</v>
+        <v>0.87616964602070602</v>
       </c>
       <c r="BE62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="0">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>0</v>
+        <v>0.80815189014150013</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -12969,10 +12969,10 @@
         <v>0</v>
       </c>
       <c r="X63" s="0">
-        <v>0</v>
+        <v>0.77109304923089717</v>
       </c>
       <c r="Y63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="0">
         <v>0</v>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>0</v>
+        <v>0.85654480180969705</v>
       </c>
       <c r="AG63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>0</v>
+        <v>0.56408368852324831</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>0</v>
+        <v>0.96621913316907904</v>
       </c>
       <c r="AX63" s="0">
         <v>0</v>
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="0">
-        <v>0</v>
+        <v>0.79987655690696835</v>
       </c>
       <c r="N64" s="0">
         <v>0</v>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="0">
-        <v>0</v>
+        <v>0.88425913534955414</v>
       </c>
       <c r="AL64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13351,10 +13351,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="0">
-        <v>0</v>
+        <v>0.70168227323472843</v>
       </c>
       <c r="O65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>0</v>
+        <v>0.5689523277887526</v>
       </c>
       <c r="U65" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="AM65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN65" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="0">
-        <v>0</v>
+        <v>0.6574796768656197</v>
       </c>
       <c r="AZ65" s="0">
         <v>0</v>
@@ -13521,10 +13521,10 @@
         <v>0</v>
       </c>
       <c r="B66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="0">
-        <v>0</v>
+        <v>0.77128440207991567</v>
       </c>
       <c r="S66" s="0">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="AN66" s="0">
-        <v>0</v>
+        <v>0.88943207108891131</v>
       </c>
       <c r="AO66" s="0">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AW66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="0">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.65479360050004076</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>0</v>
       </c>
       <c r="E67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0</v>
+        <v>0.79913956216214577</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>0</v>
+        <v>0.59063814507278312</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13808,10 +13808,10 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>0</v>
+        <v>0.98241224543835293</v>
       </c>
       <c r="AD67" s="0">
-        <v>0</v>
+        <v>0.9117325021259739</v>
       </c>
       <c r="AE67" s="0">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>0</v>
+        <v>0.53363669022095972</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0</v>
+        <v>0.50069942267189882</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.60552534718643369</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="0">
-        <v>0</v>
+        <v>0.77534025101199822</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>0</v>
+        <v>0.59449492863327413</v>
       </c>
       <c r="Z68" s="0">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="AU68" s="0">
-        <v>0</v>
+        <v>0.78878240354619567</v>
       </c>
       <c r="AV68" s="0">
         <v>0</v>
@@ -14104,10 +14104,10 @@
         <v>0</v>
       </c>
       <c r="BG68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>0</v>
+        <v>0.6406938648625693</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject11.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject11.xlsx
@@ -109,7 +109,7 @@
     <col min="51" max="51" width="12.7109375" customWidth="true"/>
     <col min="52" max="52" width="12.7109375" customWidth="true"/>
     <col min="53" max="53" width="12.7109375" customWidth="true"/>
-    <col min="54" max="54" width="11.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
     <col min="55" max="55" width="12.7109375" customWidth="true"/>
     <col min="56" max="56" width="12.7109375" customWidth="true"/>
     <col min="57" max="57" width="12.7109375" customWidth="true"/>
@@ -245,7 +245,7 @@
         <v>0</v>
       </c>
       <c r="AN1" s="0">
-        <v>0.54179055461548709</v>
+        <v>0.67492322814036076</v>
       </c>
       <c r="AO1" s="0">
         <v>0</v>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0.57156137480173075</v>
+        <v>0.93016850520602001</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.6852335738516846</v>
+        <v>0.86983215623352339</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>0.78631489007336364</v>
+        <v>0.90242982680627937</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>0.80844045867038306</v>
+        <v>0.81360932073736869</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0.57821133571820604</v>
+        <v>0.67530354170618356</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.59383979594101066</v>
+        <v>0.87516004882373788</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>0.66597763563811108</v>
+        <v>0.97947252836007315</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.82123462459036789</v>
+        <v>0.83416521379654984</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="0">
-        <v>0.50041566331635412</v>
+        <v>0.92693425463300638</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.67271083273624321</v>
+        <v>0.69718521129719635</v>
       </c>
       <c r="F7" s="0">
-        <v>0.62990773405338274</v>
+        <v>0.81944690911522888</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.90290178917702679</v>
+        <v>0.97831146113056855</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="0">
-        <v>0.59705885312331008</v>
+        <v>0.77534025101199822</v>
       </c>
     </row>
     <row r="8">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.54450275650592639</v>
+        <v>0.54829804251441483</v>
       </c>
       <c r="AF8" s="0">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>0.6665341704668144</v>
+        <v>0.89146884196465703</v>
       </c>
       <c r="AQ8" s="0">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="0">
-        <v>0.57501055227012998</v>
+        <v>0.75582725638848725</v>
       </c>
       <c r="BE8" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.59182530288969004</v>
+        <v>0.90503280693923616</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="0">
-        <v>0.66941938447276872</v>
+        <v>0.93719110205514955</v>
       </c>
       <c r="AY9" s="0">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0.61846954456281944</v>
+        <v>0.71538302171705959</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.54872028747840818</v>
+        <v>0.86972655137541754</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>0.6627740634363124</v>
+        <v>0.95431048619355963</v>
       </c>
       <c r="I11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>0.66713812688630336</v>
+        <v>0.97436995381872871</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="BC11" s="0">
-        <v>0.50950184171163038</v>
+        <v>0.8185471720861357</v>
       </c>
       <c r="BD11" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0.50265512304240445</v>
+        <v>0.52399023924596166</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.74116737876110128</v>
+        <v>0.97380478442949203</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0.68232813626134248</v>
+        <v>0.7993264005018389</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>0.65095645950900116</v>
+        <v>0.74326060495803192</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0.84374588933394268</v>
+        <v>0.88835328853097151</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>0.7496202135995701</v>
+        <v>0.80815189014150013</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>0.56936087748555897</v>
+        <v>0.67428410751203705</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>0.65365488974270769</v>
+        <v>0.68565628067660378</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.50847882730769789</v>
+        <v>0.8395158836021408</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>0.60711691126243084</v>
+        <v>0.77128440207991567</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.65479052460035603</v>
+        <v>0.73265277829846942</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0.54724953009245625</v>
+        <v>0.69752382143590264</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0.87701199155934262</v>
       </c>
       <c r="AK20" s="0">
-        <v>0.57611554306112356</v>
+        <v>0.71749747966200161</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="0">
-        <v>0.64589101531473703</v>
+        <v>0.96463023323262043</v>
       </c>
       <c r="Y21" s="0">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>0.54854549575008904</v>
+        <v>0.83744598333469011</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.73862899691506834</v>
+        <v>0.94719141374006954</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.60800565829243181</v>
+        <v>0.81183470206900776</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="BF23" s="0">
-        <v>0.65798075967175662</v>
+        <v>0.82413060369091018</v>
       </c>
       <c r="BG23" s="0">
         <v>0</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.71989427705442222</v>
+        <v>0.80121732854210426</v>
       </c>
       <c r="B24" s="0">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>0.58322247920298442</v>
+        <v>0.97897034956611706</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>0.99822803363218149</v>
       </c>
       <c r="BF24" s="0">
-        <v>0.73545367869506539</v>
+        <v>0.83112516834316186</v>
       </c>
       <c r="BG24" s="0">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>0.99375630229887213</v>
       </c>
       <c r="BH25" s="0">
-        <v>0.69683685081739211</v>
+        <v>0.70893506597599187</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="0">
-        <v>0.96964682372761046</v>
+        <v>0.99079816501995799</v>
       </c>
       <c r="I26" s="0">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="0">
-        <v>0.52158696828729689</v>
+        <v>0.77190422161971672</v>
       </c>
       <c r="AG27" s="0">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>0.76359963851484802</v>
+        <v>0.8555702130978966</v>
       </c>
       <c r="AL27" s="0">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>0.66690201882719125</v>
+        <v>0.7619059555178892</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="0">
-        <v>0.6232505243699793</v>
+        <v>0.78810739392061946</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.68442407161324303</v>
+        <v>0.87366438954689118</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="0">
-        <v>0.68493674912348057</v>
+        <v>0.89497814921078689</v>
       </c>
       <c r="K29" s="0">
         <v>0.97436995381872871</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.54632620491185624</v>
+        <v>0.69956251740254571</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0.87884994888635382</v>
+        <v>0.98241224543835293</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>0.75901050675862658</v>
+        <v>0.94301682275884291</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>0.59832136986254625</v>
+        <v>0.85333736957547679</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>0.84665089882970102</v>
+        <v>0.86516027514691785</v>
       </c>
       <c r="AB30" s="0">
         <v>0.87366438954689118</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="BO30" s="0">
-        <v>0.61859482433355217</v>
+        <v>0.9117325021259739</v>
       </c>
       <c r="BP30" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>0.58235117887928933</v>
+        <v>0.63444883560941645</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.54512541516780733</v>
+        <v>0.60687077316847338</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>0.82673460080337335</v>
+        <v>0.9086831713088892</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="BK32" s="0">
-        <v>0.80707824996817989</v>
+        <v>0.85654480180969705</v>
       </c>
       <c r="BL32" s="0">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>0.53327528339220698</v>
+        <v>0.5442057814876049</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.52148576714415351</v>
+        <v>0.6709593325953418</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="BI33" s="0">
-        <v>0.82736089337348329</v>
+        <v>0.92533403334355979</v>
       </c>
       <c r="BJ33" s="0">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="0">
-        <v>0.50707633373034755</v>
+        <v>0.54003652274311476</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>0.78927140370017623</v>
+        <v>0.94872935182820917</v>
       </c>
       <c r="O34" s="0">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="0">
-        <v>0.74821737695175594</v>
+        <v>0.78648104469434355</v>
       </c>
       <c r="AC34" s="0">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" s="0">
-        <v>0.86958174284995704</v>
+        <v>0.93120194978999082</v>
       </c>
       <c r="BA34" s="0">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>0.77891972173248469</v>
+        <v>0.84837989870114172</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0.60337957514232954</v>
+        <v>0.85279531926072005</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0.95369623002146375</v>
       </c>
       <c r="AZ35" s="0">
-        <v>0.54941751927077953</v>
+        <v>0.66961535073228506</v>
       </c>
       <c r="BA35" s="0">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>0.55193581997655516</v>
+        <v>0.87701199155934262</v>
       </c>
       <c r="U36" s="0">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="0">
-        <v>0.51029454482386916</v>
+        <v>0.98855163182275863</v>
       </c>
       <c r="Q38" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0.5624447836786024</v>
+        <v>0.71198915088135883</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>0.93397027734690796</v>
+        <v>0.99024905698219556</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8321,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="BB40" s="0">
-        <v>0.66416443102999323</v>
+        <v>0.94913601228700628</v>
       </c>
       <c r="BC40" s="0">
-        <v>0.67034064352751876</v>
+        <v>0.69582812680473505</v>
       </c>
       <c r="BD40" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.57334239904975504</v>
+        <v>0.97860629116354469</v>
       </c>
       <c r="AQ41" s="0">
         <v>0.67056289994852925</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="0">
-        <v>0.59186909242054275</v>
+        <v>0.72862474366717411</v>
       </c>
       <c r="BF41" s="0">
         <v>0</v>
@@ -8789,13 +8789,13 @@
         <v>0</v>
       </c>
       <c r="D43" s="0">
-        <v>0.65148766757800125</v>
+        <v>0.93559708018305443</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>0.52108226715354666</v>
+        <v>0.76209844076561728</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="0">
-        <v>0.91014612219185786</v>
+        <v>0.9480963733393899</v>
       </c>
       <c r="AK43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.65059589886191738</v>
+        <v>0.67056289994852925</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="0">
-        <v>0.5020040709916489</v>
+        <v>0.7047393025086679</v>
       </c>
       <c r="AK44" s="0">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="BF44" s="0">
-        <v>0.53707245637715695</v>
+        <v>0.96791281499422799</v>
       </c>
       <c r="BG44" s="0">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="0">
-        <v>0.550370916602414</v>
+        <v>0.63631749951362604</v>
       </c>
       <c r="V45" s="0">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>0.71198915088135883</v>
       </c>
       <c r="AM45" s="0">
-        <v>0.73381155218606886</v>
+        <v>0.86556123583567168</v>
       </c>
       <c r="AN45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.66228146613956251</v>
+        <v>0.69288468085332799</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="0">
-        <v>0.68971969939891875</v>
+        <v>0.87713591886966102</v>
       </c>
       <c r="D46" s="0">
         <v>0.97947252836007315</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="0">
-        <v>0.74881901086868807</v>
+        <v>0.80150988493248454</v>
       </c>
       <c r="AB46" s="0">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="BP47" s="0">
-        <v>0.68062926943299917</v>
+        <v>0.78878240354619567</v>
       </c>
     </row>
     <row r="48">
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.80299461846804332</v>
+        <v>0.83519713185661071</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>0.8702489629143888</v>
+        <v>0.88500615351785483</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.62360124905946523</v>
+        <v>0.79101317257061221</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>0.64037727464445782</v>
+        <v>0.96621913316907904</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="0">
-        <v>0.85737570277891095</v>
+        <v>0.88380130725799144</v>
       </c>
       <c r="G50" s="0">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="0">
-        <v>0.6517167958304988</v>
+        <v>0.98496688355997386</v>
       </c>
       <c r="Q50" s="0">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="0">
-        <v>0.64786228529871992</v>
+        <v>0.71993598558798644</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="0">
-        <v>0.92331728809033786</v>
+        <v>0.95369623002146375</v>
       </c>
       <c r="AJ51" s="0">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>0.502419786592321</v>
+        <v>0.83256890732943223</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.71080414312673801</v>
+        <v>0.93842866893108723</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.68151642437965532</v>
+        <v>0.77545227335396238</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>0.73206061585067506</v>
+        <v>0.82654632838082565</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="0">
-        <v>0.7255370371499863</v>
+        <v>0.99371951599938457</v>
       </c>
       <c r="J54" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0.54029663719755716</v>
+        <v>0.69640806963277768</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.69865890553474985</v>
+        <v>0.95501322308165604</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="BJ56" s="0">
-        <v>0.78443210423826626</v>
+        <v>0.87616964602070602</v>
       </c>
       <c r="BK56" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>0.8605982993638317</v>
+        <v>0.99822803363218149</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>0.59128148553782256</v>
+        <v>0.67203756632520228</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>0.8195575863764939</v>
+        <v>0.89528319199823458</v>
       </c>
       <c r="M58" s="0">
         <v>0</v>
@@ -12148,10 +12148,10 @@
         <v>0</v>
       </c>
       <c r="Y59" s="0">
-        <v>0.82998245933484538</v>
+        <v>0.99375630229887213</v>
       </c>
       <c r="Z59" s="0">
-        <v>0.78481632123327905</v>
+        <v>0.8204119112387982</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0.58850748418615639</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.74331210188066321</v>
+        <v>0.83174211459417657</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0.51744867800866556</v>
+        <v>0.66098487110262516</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AV60" s="0">
-        <v>0.74489969831689118</v>
+        <v>0.78209214759881329</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.54372801260458048</v>
+        <v>0.58850748418615639</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>0.53120838704808548</v>
+        <v>0.91707995512488916</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="0">
-        <v>0.60030590745632262</v>
+        <v>0.86313756051540214</v>
       </c>
       <c r="O61" s="0">
         <v>0</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>0.63826806162092153</v>
+        <v>0.78863581123243032</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="0">
-        <v>0.77109304923089717</v>
+        <v>0.8187654159481248</v>
       </c>
       <c r="Y63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>0.56408368852324831</v>
+        <v>0.81907690243718001</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="0">
-        <v>0.79987655690696835</v>
+        <v>0.93000247104385014</v>
       </c>
       <c r="N64" s="0">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="0">
-        <v>0.88425913534955414</v>
+        <v>0.91034113916764736</v>
       </c>
       <c r="AL64" s="0">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="0">
-        <v>0.70168227323472843</v>
+        <v>0.85298730329269379</v>
       </c>
       <c r="O65" s="0">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>0.5689523277887526</v>
+        <v>0.73396524504089156</v>
       </c>
       <c r="U65" s="0">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="0">
-        <v>0.6574796768656197</v>
+        <v>0.80637157790085601</v>
       </c>
       <c r="AZ65" s="0">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="AN66" s="0">
-        <v>0.88943207108891131</v>
+        <v>0.95322077067574762</v>
       </c>
       <c r="AO66" s="0">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0.79913956216214577</v>
+        <v>0.83527658132891192</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>0.59063814507278312</v>
+        <v>0.97125648808967613</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>0.53363669022095972</v>
+        <v>0.93440077814147493</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0.50069942267189882</v>
+        <v>0.83796058983337973</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.60552534718643369</v>
+        <v>0.65479360050004076</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>0.59449492863327413</v>
+        <v>0.73966117953056587</v>
       </c>
       <c r="Z68" s="0">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>0.6406938648625693</v>
+        <v>0.92389864086526785</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
